--- a/data/S-phase_duration_Params.xlsx
+++ b/data/S-phase_duration_Params.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/4470246/Projects/PMO/HighPloidy_DoubleEdgedSword/code/MathModel/GrowOrGo_PloidyEnergyRobustness/R/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/4470246/Projects/PMO/HighPloidy_DoubleEdgedSword/code/MathModel/GrowOrGo_PloidyEnergyRobustness/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4742447-7A1A-5D48-B691-AFC48CCE9B68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353D8280-9500-1C40-9B30-E1ECDAFBED57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="460" windowWidth="32360" windowHeight="18860" activeTab="1" xr2:uid="{DA59BEBD-339E-6640-84EB-F8DDFB9BD691}"/>
+    <workbookView xWindow="1240" yWindow="460" windowWidth="32360" windowHeight="18860" xr2:uid="{DA59BEBD-339E-6640-84EB-F8DDFB9BD691}"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>T1</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Michaelis menten kinetics: dNTP</t>
-  </si>
-  <si>
     <t>CellCycle</t>
   </si>
   <si>
@@ -146,6 +143,36 @@
   </si>
   <si>
     <t>PO4_mMol_per_liter</t>
+  </si>
+  <si>
+    <t>K_M_RNR</t>
+  </si>
+  <si>
+    <t>v_max_RNR</t>
+  </si>
+  <si>
+    <t>Michaelis menten kinetics: Poly</t>
+  </si>
+  <si>
+    <t>Michaelis menten kinetics: RNR</t>
+  </si>
+  <si>
+    <t>11006282</t>
+  </si>
+  <si>
+    <t>ATMOSPHERIC_SEALEVEL_O2_mmHg</t>
+  </si>
+  <si>
+    <t>atmospheric, sea-level, pressure is approximately 760 mmHg</t>
+  </si>
+  <si>
+    <t>mMol dCDP/h/mg of R1</t>
+  </si>
+  <si>
+    <t>O2_brain_min</t>
+  </si>
+  <si>
+    <t>24068884</t>
   </si>
 </sst>
 </file>
@@ -540,17 +567,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84648E7-4A5B-F642-80F8-159A6E3CA6CA}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D3"/>
+    <sheetView tabSelected="1" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="10" style="6" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
   </cols>
@@ -587,7 +614,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -605,7 +632,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -624,106 +651,174 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <f>0.005*B15</f>
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B6" s="7">
         <f>5.08 / 10^6 * 60^2</f>
         <v>1.8288000000000002E-2</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6">
-        <f>ROUND(1/(B7*B3/(B8*B9)),0)</f>
-        <v>3521</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B7">
-        <v>7.3</v>
+        <f>ROUND(1/(B8*B3/(B9*B10)),0)</f>
+        <v>3521</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>3.4550000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>3.4550000000000001</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <f>3*10^9</f>
         <v>3000000000</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="D10" s="6">
-        <v>15968660</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>2.7E-4</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="D11" s="6">
         <v>15968660</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2.7E-4</v>
+      </c>
+      <c r="D12" s="6">
+        <v>15968660</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <f>0.009241*B15</f>
+        <v>7.023159999999999</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <f>60*0.000001*1.05*15.7</f>
+        <v>9.8909999999999992E-4</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>760</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D2:D3 D7 D4:D5" numberStoredAsText="1"/>
+    <ignoredError sqref="D8 D6 D2:D4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -732,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80836065-DD31-6C47-828D-4F0B36C2607F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
+    <sheetView zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -745,10 +840,10 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -783,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10">
-        <f>(D2-Params!B10)/Params!B11</f>
+        <f>(D2-Params!B11)/Params!B12</f>
         <v>2866.6666666666665</v>
       </c>
       <c r="F2">
@@ -791,7 +886,7 @@
         <v>90</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -810,7 +905,7 @@
         <v>1.567398119122257</v>
       </c>
       <c r="E3" s="10">
-        <f>(D3-Params!B10)/Params!B11</f>
+        <f>(D3-Params!B11)/Params!B12</f>
         <v>4968.1411819342857</v>
       </c>
       <c r="F3">
@@ -818,7 +913,7 @@
         <v>90</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -837,14 +932,14 @@
         <v>1.8726591760299625</v>
       </c>
       <c r="E4" s="10">
-        <f>(D4-Params!B10)/Params!B11</f>
+        <f>(D4-Params!B11)/Params!B12</f>
         <v>6098.7376889998613</v>
       </c>
       <c r="F4">
         <v>180</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/S-phase_duration_Params.xlsx
+++ b/data/S-phase_duration_Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/4470246/Projects/PMO/HighPloidy_DoubleEdgedSword/code/MathModel/GrowOrGo_PloidyEnergyRobustness/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353D8280-9500-1C40-9B30-E1ECDAFBED57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B578E528-3427-084F-A394-657B7AF9C4F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="460" windowWidth="32360" windowHeight="18860" xr2:uid="{DA59BEBD-339E-6640-84EB-F8DDFB9BD691}"/>
+    <workbookView xWindow="10760" yWindow="7700" windowWidth="32360" windowHeight="18820" xr2:uid="{DA59BEBD-339E-6640-84EB-F8DDFB9BD691}"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>T1</t>
   </si>
@@ -173,6 +173,21 @@
   </si>
   <si>
     <t>24068884</t>
+  </si>
+  <si>
+    <t>coefficient of O2 solubility in water</t>
+  </si>
+  <si>
+    <t>mMol*L^-1 *mmHg^-1</t>
+  </si>
+  <si>
+    <t>mMol*L^-1</t>
+  </si>
+  <si>
+    <t>Henry's law</t>
+  </si>
+  <si>
+    <t>12771568</t>
   </si>
 </sst>
 </file>
@@ -567,15 +582,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84648E7-4A5B-F642-80F8-159A6E3CA6CA}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" customWidth="1"/>
     <col min="3" max="3" width="23.83203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="10" style="6" customWidth="1"/>
@@ -767,11 +782,11 @@
         <v>39</v>
       </c>
       <c r="B13">
-        <f>0.009241*B15</f>
-        <v>7.023159999999999</v>
+        <f>0.009241*B15*B16</f>
+        <v>9.7621923999999978E-3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>43</v>
@@ -813,6 +828,24 @@
       </c>
       <c r="E15" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <f>1.39*10^-3</f>
+        <v>1.39E-3</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
